--- a/ORM TOOLS-PYTHON.xlsx
+++ b/ORM TOOLS-PYTHON.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ORM TOOLS FOR PYTHON</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>GITTER CHAT,GITHUB</t>
+  </si>
+  <si>
+    <t>RELEASE DATE</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,14 +242,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,43 +574,49 @@
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -611,11 +629,14 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="12">
+        <v>40316</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -628,11 +649,14 @@
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12">
+        <v>38762</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -645,11 +669,14 @@
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="12">
+        <v>37652</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -662,11 +689,14 @@
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13">
+        <v>40803</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -679,11 +709,14 @@
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13">
+        <v>39769</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -696,11 +729,14 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14">
+        <v>43304</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -713,11 +749,14 @@
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13">
+        <v>40469</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -730,24 +769,21 @@
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13">
+        <v>43678</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="D13" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
